--- a/Диплом/Таблица_аналогов_Grafana.xlsx
+++ b/Диплом/Таблица_аналогов_Grafana.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shoma/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shoma/MSU_learning/Диплом/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B38180-2EF7-D141-AB19-6169568EBA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA2AA23-61E8-CC4C-8D08-F65FA6615E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19980" xr2:uid="{3B9D38D0-8004-5B4E-ADD3-0C111A666BFC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{3B9D38D0-8004-5B4E-ADD3-0C111A666BFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -98,7 +98,7 @@
     <t>Высокая гибкость при настройке визуализации данных</t>
   </si>
   <si>
-    <t>Больше возможностей в сфере мониторинга и систем оповещений</t>
+    <t>Больше возможностей в сфере мониторинга и систем оповещений по сравнению с Tableau и PowerBI</t>
   </si>
 </sst>
 </file>
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F28F2821-D01C-A04E-BE1D-90BA5A491887}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -774,7 +774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
